--- a/medicine/Enfance/Lauren_Henderson_(romancière_britannique)/Lauren_Henderson_(romancière_britannique).xlsx
+++ b/medicine/Enfance/Lauren_Henderson_(romancière_britannique)/Lauren_Henderson_(romancière_britannique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauren Milne Henderson, née le 30 septembre 1966, à Londres, est une journaliste et une romancière britannique, auteur de roman policier, de roman d'amour et d’ouvrages de littérature d’enfance et de jeunesse. Ses influences littéraires incluent Jackie Collins, Peter O'Donnell, Agatha Christie, Judith Krantz, Georgette Heyer, P.G. Wodehouse, Barbara Pym, et A. N. Roquelaure.
 Entre 1996 et 2011, Henderson a publié 17 livres sous sa véritable identité. Elle a commencé à écrire sous le pseudonyme de Rebecca Chance en 2009 et écrit désormais ses romans exclusivement sous ce nom.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lauren Henderson est née à Hampstead (Londres). Après des études primaires à la North London Collegiate School, son modèle pour Wakefield Hall dans la série "Kiss" avec Scarlett Wakefield, elle a ensuite été scolarisée à la St Paul’s Girls' School (dont elle s'est inspirée pour St Tabby’s), avant d'enchaîner sur un diplôme de littérature à Cambridge. Après avoir hésité pendant ses études universitaires entre une carrière de comédienne et le monde du journalisme, elle opte pour ce dernier et collabore pendant une dizaine d’années à diverses publications, notamment New Statesman, Marxism Today et The Observer.  Depuis les années 1990, elle se consacre uniquement à l’écriture.  
 Après huit ans passés en Toscane afin d'y apprendre l'italien et d'y écrire des livres, elle s'installe à Manhattan. Les expériences qu'elle y fait en matière de rencontres amoureuses lui fournissent l'inspiration pour son livre de rendez-vous, Jane Austen’s Guide to Dating.  
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,67 +562,259 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Sam Jones
-Dead White Female (1995) Publié en français sous le titre Une soirée mortelle, Paris, Librairie des Champs-Élysées, Le Masque no 2321, 1997
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Sam Jones</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dead White Female (1995) Publié en français sous le titre Une soirée mortelle, Paris, Librairie des Champs-Élysées, Le Masque no 2321, 1997
 Too Many Blondes (1996) Publié en français sous le titre Y'en a marre des blondes, Paris, Liana Levi, coll. À corps et à crime, 1998 ; réédition, Paris, Seuil, coll. Points policiers no 861, 2001
 The Black Rubber Dress (1997) Publié en français sous le titre L'Indispensable Petite Robe noire, Paris, Liana Levi, coll. À corps et à crime, 1999 ; réédition, Paris, Seuil, coll. Points policiers no 963, 2002
 Freeze My Margarita (1998)
 The Strawberry Tattoo (1999) Publié en français sous le titre Tatouage à la fraise, Paris, Liana Levi, coll. À corps et à crime, 2000 ; réédition, Paris, Seuil, coll. Points policiers no 1101, 2003
 Chained! (2000) Publié en français sous le titre Déchaînée, Paris, Liana Levi, coll. À corps et à crime, 2002 ; réédition, Paris, Seuil, coll. Points policiers no 1207, 2004
-Pretty Boy (2001) Publié en français sous le titre Pretty Boy, Paris, Liana Levi, coll. À corps et à crime, 2003 ; réédition, Paris, Seuil, coll. Points policiers no 1292, 2005
-Série policière pour la jeunesse Scarlett Wakefield
-Kiss Me Kill Me (2008)
+Pretty Boy (2001) Publié en français sous le titre Pretty Boy, Paris, Liana Levi, coll. À corps et à crime, 2003 ; réédition, Paris, Seuil, coll. Points policiers no 1292, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série policière pour la jeunesse Scarlett Wakefield</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Kiss Me Kill Me (2008)
 Kisses and Lies (2008)
 Kiss in he Dark (2010)
-Kiss of Death (2011)
-Série Flirting in Italian
-Flirting in Italian (2012)
-Kissing in Italian (2014)
-Autres romans
-My Lurid Past (2003)
+Kiss of Death (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Flirting in Italian</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flirting in Italian (2012)
+Kissing in Italian (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>My Lurid Past (2003)
 Don’t Even Think About It (2004)
 Exes Anonymous (2005)
-My Lurid Life (2006)
-Recueils de nouvelles
-Tart Noir (2002), en collaboration avec Stella Duffy
+My Lurid Life (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Tart Noir (2002), en collaboration avec Stella Duffy
 Dying for It (2004), recueil collectif
 Stirring Up a Storm (2004), recueil collectif
 American Girls About Town (2004), recueil collectif
-12 Days: Stories Inspired by The Twelve Days of Christmas (2005), recueil collectif
-Autres ouvrages
-Jane Austen’s Guide to Dating (2005)
+12 Days: Stories Inspired by The Twelve Days of Christmas (2005), recueil collectif</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Jane Austen’s Guide to Dating (2005)
 Jane Austen’s Guide to Romance: The Regency Rules (2006)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lauren_Henderson_(romancière_britannique)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lauren_Henderson_(romanci%C3%A8re_britannique)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Dagger 2020 de la meilleure nouvelle pour #Me Too[1]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Dagger 2020 de la meilleure nouvelle pour #Me Too</t>
         </is>
       </c>
     </row>
